--- a/APS State Websites v3/Data/Input/file_to_scrape.xlsx
+++ b/APS State Websites v3/Data/Input/file_to_scrape.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -31,25 +31,43 @@
     <x:t>LICENSE_STATE</x:t>
   </x:si>
   <x:si>
-    <x:t>APS10305928384058769144012022019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BARBARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SALADINO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APS10305925361642900711105262020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KELLY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EDWARDS</x:t>
+    <x:t>APS1030592895917216037221674480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DERRIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARTMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DN014765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592837760716037221776390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOCELYN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DN014217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592736037916037221315742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LYNN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOLOMON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNF000361</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -400,7 +418,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E3"/>
+  <x:dimension ref="A1:E4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -433,28 +451,45 @@
       <x:c r="C2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>24080221</x:v>
+      <x:c r="D2" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>17143383</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>8</x:v>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/APS State Websites v3/Data/Input/file_to_scrape.xlsx
+++ b/APS State Websites v3/Data/Input/file_to_scrape.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -31,43 +31,1246 @@
     <x:t>LICENSE_STATE</x:t>
   </x:si>
   <x:si>
-    <x:t>APS1030592895917216037221674480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DERRIK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HARTMAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DN014765</x:t>
+    <x:t>APS1030592651774816587291096562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROBERT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN274756</x:t>
   </x:si>
   <x:si>
     <x:t>GA</x:t>
   </x:si>
   <x:si>
-    <x:t>APS1030592837760716037221776390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOCELYN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DN014217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APS1030592736037916037221315742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LYNN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOLOMON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DNF000361</x:t>
+    <x:t>APS1030592779061316585420493940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WENDY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GERHARDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN292459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592751763616582982800881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RITA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHMOUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN109444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592583794216583018314630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOUIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BELINFANTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DN007281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592835288016584562770660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RICHARD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILBANKS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DN011731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592838249516584439091380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STEVEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROBERTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNF000339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592705646116585422476440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KERRY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAGEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592503930716587643378591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592825652416584504954300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592524058616584604397500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLTON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LANCASTER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592823636816587671842040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRDANIEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOYD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592733909516584510122480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JEFFREY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SCHULZE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592503986516582921011710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JENNIFER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOEHLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592714717416587662488480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STEPHEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THOMAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592821590116587578636390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIKTORIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NURPEISOV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592502726716584709191940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANNE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SYMBAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN211468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593231677916579641252670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BERNARD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MUTHONI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN198800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592606040116583016400800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOHNSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN057678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592757376616587628050840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NANCY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAYLOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN231060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592737990716584628974480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALISA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCALEER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LD004444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592748879316584557753070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KIMBERLY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TERRELL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LD002241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593324363116587645923160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LINDSEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STRICKER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LD003955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592675889916582965977070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LISA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EISELE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LD001250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592757270916587616204631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TENIKA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MILES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LD003210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592895124216583776197351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMENA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAREEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT003244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593239972016583625470280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CATHERINE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRAFT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT007585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592736888916587522379350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANDLER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HAMMOND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT006953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592668197616584612316630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTANCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WESSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT001535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592812379316584349371660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COREY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCINTYRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT006028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592969491516583625438392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CORTNEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MILLS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT002882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593269663216587292898450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVALINE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TREVIAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT007883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592811008516587522412900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHITE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT005787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593002002716583018181441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HILLARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HEITZMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT005866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592993679416587615052371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GARNER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT006656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593187696816587522409140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIDLEHOOVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT007317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592785910416584465870671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATRICIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUSTUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT002964</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592526034416584624952564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PHAEDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MASHBURN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT008067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593314165016584494196011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAFAEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SALAZAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT005570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592892957216583776203190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SITTERLEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT005562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592659765916584443073430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROGER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BANNON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT002316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592998330016585021988672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HEACOCK-SMITH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT005553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592927716316587628191600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUTHER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT007256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593349843916584097914590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHELLEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WALKER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT002382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592621786916583625415320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANJA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT000633</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592672115416583625433831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOUNYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHITTINGTON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT005271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592833304016584556803060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BALAKRISHNAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT005209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592614006616584463360060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARSHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OT003577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592601470316582992120770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAMES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUNDY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPT000886</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592665185516582993716560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADRIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRATHER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT008337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592753515916583626110470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROBINSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT013298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592744264016587523084340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIFFITH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT001803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592761813116582706056490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASHLEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT011532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593326432316583625430510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BENJAMIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELOACH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT015515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592725576016582978323250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT013025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592740827116582988229340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARRIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOZEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592814537116582735400080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CYNTHIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROCHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT001635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592925066716587626132870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DANIEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCGOWAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT013010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592760183816583625444730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOMINIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHANNON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT013656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592616916316582840673190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMILY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILLIAMS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT008119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592705628816582906594890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FATIMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUNAID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT011800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592838239216582821667980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HEATHER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT012165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592657297516587522392860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUDITH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIERMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT001224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592718148616582785962840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JULIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEATHERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593250847816583233654541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KATHLEEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GREENE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT006568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592836934316582682937350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLEMONS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592654089816582999152360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIGGINS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT007599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592583223216584423996560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POSTELL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT004149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592750769316587628675090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEEKER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT013911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592576676716584501004440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATTHEW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SCHMIDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT012930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592753847416584584828030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNDERWOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT011669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593323236316583625425060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEGAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRANCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT015441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592833396416584516520550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THACKER FUSCO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592760041216584631518330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MELVIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WIMMER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT013399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592603047716582440584430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MICHAEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARRIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592740115916582934839131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAJESH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHATKARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT003550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592833049016584493858980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REBECCA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FILSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009358</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592798241016584610475400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUGLI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT006880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592808525616584523180150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROBERTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINNIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT005219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592591498416584402731810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROBERTUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WOLTERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT003295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592922199716583625416290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STEPHANIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RUCCIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT008411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592546558216584532943010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AVOLIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT004742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592679648316587670885931</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMOTHY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLEMMONS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592679648316587670885920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592715777416583776197262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VANESSA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AQUINO-DICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT007523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592704523616583782811590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VANN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JORDAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT010322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592816426916584629143520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VICTORIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT009669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593344116316584369837700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BENITA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BROWN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN224406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593006313416582729510740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CROWELL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN177073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592999344316583685143960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STACY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRADFIELD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN170998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592512951516582800445131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZONDERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIMPSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RN239316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592582151016583683983122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRADLEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VANASSCHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592646742016584366358900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSENBERG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592585950016581996537513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAKACS-DILORENZO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592604206216582985054382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DORN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592797647916582409993530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BURDETTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592996436016583736427550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANESH SHREEHARI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASWATH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592998402816584393282400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HASHIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABBAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592590815516581978765191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOHN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEWIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592777800116583015862061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JONATHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MINKOWSKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593001771416583793217080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSEF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APONTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592752318716584453705321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KATHRYN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHEPPARD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592533811116581976073553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARTIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEAVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592685480016583715481920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILKES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592606290916583612627230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MICHELE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNDAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030593001885516582965233110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MITALI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAKVASA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592750910416584657397341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OLIVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HASEK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592684974416584619331303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRANATHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNDARAGIRI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592993354216582003467503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAIKIRAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAGHAVAPURAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592744861016584723941221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMUEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TSAPPIDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592705260716584649643240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAWN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHIANNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592710131716585447931718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUBBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALAPATI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592809117916585455329891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STEWART</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592585363416582982194860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TALBERT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592762686116581992373662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VINCENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592732418516582997399815</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILLIAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WRIGHT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592756355116587595573243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XIAO JING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APS1030592811003716584721202181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZACHARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOHANNESEN</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -418,7 +1621,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E4"/>
+  <x:dimension ref="A1:E118"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -492,6 +1695,1944 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>58108</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>80574</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>64313</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>15392</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>64780</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>65612</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>67816</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>65319</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>64686</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5">
+      <x:c r="A51" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="A52" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="A53" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="A54" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5">
+      <x:c r="A55" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5">
+      <x:c r="A56" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5">
+      <x:c r="A57" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5">
+      <x:c r="A58" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:5">
+      <x:c r="A59" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:5">
+      <x:c r="A60" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:5">
+      <x:c r="A61" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:5">
+      <x:c r="A62" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:5">
+      <x:c r="A63" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:5">
+      <x:c r="A64" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:5">
+      <x:c r="A65" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:5">
+      <x:c r="A66" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:5">
+      <x:c r="A67" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:5">
+      <x:c r="A68" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:5">
+      <x:c r="A69" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:5">
+      <x:c r="A70" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:5">
+      <x:c r="A71" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:5">
+      <x:c r="A72" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:5">
+      <x:c r="A73" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:5">
+      <x:c r="A74" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:5">
+      <x:c r="A75" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:5">
+      <x:c r="A76" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:5">
+      <x:c r="A77" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:5">
+      <x:c r="A78" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:5">
+      <x:c r="A79" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:5">
+      <x:c r="A80" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:5">
+      <x:c r="A81" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:5">
+      <x:c r="A82" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:5">
+      <x:c r="A83" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:5">
+      <x:c r="A84" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:5">
+      <x:c r="A85" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:5">
+      <x:c r="A86" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:5">
+      <x:c r="A87" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:5">
+      <x:c r="A88" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:5">
+      <x:c r="A89" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:5">
+      <x:c r="A90" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:5">
+      <x:c r="A91" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:5">
+      <x:c r="A92" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="n">
+        <x:v>71903</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:5">
+      <x:c r="A93" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="n">
+        <x:v>50554</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:5">
+      <x:c r="A94" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="n">
+        <x:v>48859</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:5">
+      <x:c r="A95" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="n">
+        <x:v>7449</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:5">
+      <x:c r="A96" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="n">
+        <x:v>18618</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:5">
+      <x:c r="A97" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="n">
+        <x:v>79859</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:5">
+      <x:c r="A98" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="n">
+        <x:v>85562</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:5">
+      <x:c r="A99" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="n">
+        <x:v>78406</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:5">
+      <x:c r="A100" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="n">
+        <x:v>85048</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:5">
+      <x:c r="A101" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="n">
+        <x:v>31869</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:5">
+      <x:c r="A102" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="n">
+        <x:v>6768</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:5">
+      <x:c r="A103" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="n">
+        <x:v>86393</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:5">
+      <x:c r="A104" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="n">
+        <x:v>70923</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:5">
+      <x:c r="A105" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="n">
+        <x:v>71893</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:5">
+      <x:c r="A106" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="n">
+        <x:v>69236</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:5">
+      <x:c r="A107" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="n">
+        <x:v>71981</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:5">
+      <x:c r="A108" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="n">
+        <x:v>85408</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:5">
+      <x:c r="A109" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="n">
+        <x:v>85554</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:5">
+      <x:c r="A110" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="n">
+        <x:v>59523</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:5">
+      <x:c r="A111" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="n">
+        <x:v>73259</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:5">
+      <x:c r="A112" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="n">
+        <x:v>40854</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:5">
+      <x:c r="A113" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="n">
+        <x:v>31331</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:5">
+      <x:c r="A114" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="n">
+        <x:v>40257</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:5">
+      <x:c r="A115" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="n">
+        <x:v>71443</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:5">
+      <x:c r="A116" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="n">
+        <x:v>45675</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:5">
+      <x:c r="A117" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="n">
+        <x:v>74433</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:5">
+      <x:c r="A118" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="n">
+        <x:v>6984</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
